--- a/Documents/BA/Supporting_Docs/Commercial_Doc.xlsx
+++ b/Documents/BA/Supporting_Docs/Commercial_Doc.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -123,10 +123,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -258,23 +258,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -284,27 +284,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -313,17 +313,17 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -340,6 +340,309 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981700" y="3429000"/>
+          <a:ext cx="7231380" cy="3215640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Revenue Vol/Price Low/Low </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>for Year 1 is calulated by</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t> using below logic</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t>1st we have calculated  "Estimated Market Share Units" for Year 1 and Low by multiplying Market SHare% of Low and Market Size means </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t>[(Market Share% for Low) x (Market Size)]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t>2nd </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>we have calculated  "NSP" for Year 1 and Low </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t> by multiplying NSP/Unit for Low and Price Erosion% for Year1 plus one</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t>Means  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t>[(NSP% for Low) x (1+ Price Erosion%)]</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t>Finally,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t>3rd We made Multiplication of "NSP" and "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Estimated Market Share Units" which are calculated in Step1 and Step2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>= (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NSP x Estimated Market Share Units</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Revenue Vol/Price Low/Low = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[(Market Share% for Low) x (Market Size)] x [(NSP% for Low) x (1+ Price Erosion%)]</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -608,20 +911,20 @@
   <dimension ref="B1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6328125" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.90625" customWidth="1"/>
-    <col min="13" max="13" width="2.1796875" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" customWidth="1"/>
+    <col min="13" max="13" width="2.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -630,11 +933,11 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="21" t="s">
         <v>15</v>
       </c>
@@ -646,7 +949,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
         <v>5</v>
@@ -680,7 +983,7 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="33"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
@@ -718,7 +1021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
@@ -745,7 +1048,7 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="14"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -777,7 +1080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>1</v>
       </c>
@@ -813,7 +1116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -843,7 +1146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -875,7 +1178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
@@ -918,7 +1221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -964,7 +1267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -1008,7 +1311,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="17"/>
       <c r="C14" s="18" t="s">
         <v>10</v>
@@ -1041,7 +1344,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N15" s="17"/>
       <c r="O15" s="18" t="s">
         <v>30</v>
@@ -1053,12 +1356,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>32</v>
       </c>
@@ -1073,7 +1376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>21</v>
       </c>
@@ -1093,7 +1396,7 @@
         <v>833910.00000000012</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
       <c r="C19" s="4" t="s">
         <v>24</v>
@@ -1111,7 +1414,7 @@
         <v>938148.75</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -1129,7 +1432,7 @@
         <v>1042387.5000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="12"/>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1147,7 +1450,7 @@
         <v>1250865</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="12"/>
       <c r="C22" s="4" t="s">
         <v>26</v>
@@ -1165,7 +1468,7 @@
         <v>1407223.1249999998</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="12"/>
       <c r="C23" s="4" t="s">
         <v>27</v>
@@ -1183,7 +1486,7 @@
         <v>1563581.25</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="12"/>
       <c r="C24" s="4" t="s">
         <v>28</v>
@@ -1201,7 +1504,7 @@
         <v>1667820.0000000002</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="12"/>
       <c r="C25" s="4" t="s">
         <v>29</v>
@@ -1219,7 +1522,7 @@
         <v>1876297.5</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="17"/>
       <c r="C26" s="18" t="s">
         <v>30</v>
@@ -1237,7 +1540,7 @@
         <v>2084775.0000000002</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D27" s="36"/>
       <c r="E27" s="36"/>
       <c r="F27" s="36"/>
@@ -1245,5 +1548,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>